--- a/formatos/editar-user.xlsx
+++ b/formatos/editar-user.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Factoria - Digtl01\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>APELLIDO_PATERNO</t>
   </si>
@@ -91,11 +96,14 @@
   <si>
     <t>DNI</t>
   </si>
+  <si>
+    <t>4: Grupo de repartidores</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,6 +269,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -308,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -648,10 +659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K10802"/>
+  <dimension ref="B1:K10803"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,29 +745,29 @@
       <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="D6"/>
-      <c r="F6"/>
+      <c r="F6" s="7"/>
+      <c r="K6" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7"/>
       <c r="D7"/>
       <c r="F7"/>
-      <c r="K7" s="11" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="D8"/>
       <c r="F8"/>
-      <c r="K8" s="8" t="s">
-        <v>15</v>
+      <c r="K8" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -764,7 +775,7 @@
       <c r="D9"/>
       <c r="F9"/>
       <c r="K9" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -772,81 +783,83 @@
       <c r="D10"/>
       <c r="F10"/>
       <c r="K10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11"/>
       <c r="D11"/>
       <c r="F11"/>
-      <c r="K11" s="9" t="s">
-        <v>13</v>
+      <c r="K11" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12"/>
       <c r="D12"/>
       <c r="F12"/>
+      <c r="K12" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="D13"/>
       <c r="F13"/>
-      <c r="K13" s="11" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="D14"/>
       <c r="F14"/>
-      <c r="K14" s="8" t="s">
-        <v>22</v>
+      <c r="K14" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="D15"/>
       <c r="F15"/>
-      <c r="K15" s="9" t="s">
-        <v>23</v>
+      <c r="K15" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="D16"/>
       <c r="F16"/>
+      <c r="K16" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="D17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="D18"/>
       <c r="F18"/>
-      <c r="K18" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="D19"/>
       <c r="F19"/>
-      <c r="K19" s="14"/>
+      <c r="K19" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="D20"/>
       <c r="F20"/>
-      <c r="K20" s="15"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="D21"/>
       <c r="F21"/>
-      <c r="K21" s="12"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22"/>
@@ -870,6 +883,7 @@
       <c r="B25"/>
       <c r="D25"/>
       <c r="F25"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26"/>
@@ -54755,13 +54769,18 @@
       <c r="B10802"/>
       <c r="D10802"/>
       <c r="F10802"/>
+    </row>
+    <row r="10803" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10803"/>
+      <c r="D10803"/>
+      <c r="F10803"/>
     </row>
   </sheetData>
   <sortState ref="B2:B10803">
     <sortCondition ref="B1"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K19:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/formatos/editar-user.xlsx
+++ b/formatos/editar-user.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Factoria - Digtl01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cursodelosi-github\formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="23715" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Lista" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -256,6 +256,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,13 +571,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="17" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -585,7 +591,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -661,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K10803"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
